--- a/Solucion/WebApplication1/Exportar/Documento_Modelo/Base_de_Datos.xlsx
+++ b/Solucion/WebApplication1/Exportar/Documento_Modelo/Base_de_Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guido\Desktop\pruebas_compr\Solucion\WebApplication1\Exportar\Documento_Modelo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B6A5B5-552F-4670-A958-3C0D847CA552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6A684A-AAF6-4AE2-9A6E-48EB58910444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5E9FF1E2-2A43-44C0-A97E-8B5FEEED7E5B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5E9FF1E2-2A43-44C0-A97E-8B5FEEED7E5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="375">
   <si>
     <t>Duración</t>
   </si>
@@ -1020,6 +1020,147 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Se obtiene cuando el sujeto hace clic en "Aceptar" (Consentimiento Informado)</t>
+  </si>
+  <si>
+    <t>Se obtiene cuando el sujeto hace clic en "&gt;" al finalizar ambas tareas (Comprensión)</t>
+  </si>
+  <si>
+    <t>Surge de la resta de las varibles anteriores (hh:mm:ss)</t>
+  </si>
+  <si>
+    <t>Lo asigna automáticamente el servidor a cada sujeto</t>
+  </si>
+  <si>
+    <t>Se puede asignar automáticamente, modificando los valores en la Hoja "Nivel_Educativo"</t>
+  </si>
+  <si>
+    <t>en milisegundos</t>
+  </si>
+  <si>
+    <t>1 punto por cada correcta. Max = 21</t>
+  </si>
+  <si>
+    <t>Contiene el string con la respuesta que ingresó el sujeto en cada ensayo</t>
+  </si>
+  <si>
+    <t>Respuesta elegida en ¿Cuántos libros lee al año?</t>
+  </si>
+  <si>
+    <t>Contiene el string total con la respuesta que ingresó el sujeto en cada texto</t>
+  </si>
+  <si>
+    <t>El Texto de Alto Conoc. Previo n°1 ¿Contiene incoherencias o información errónea? Si / No</t>
+  </si>
+  <si>
+    <t>En caso de haber contestado "Si", contiene las palabras seleccionadas por el sujeto. Si contesto "No", queda vacío</t>
+  </si>
+  <si>
+    <t>El Texto de Bajo Conoc. Previo n°1 ¿Contiene incoherencias o información errónea? Si / No</t>
+  </si>
+  <si>
+    <t>Contiene un "respaldo" con los Índices de las palabras seleccionadas en caso de haber contestado que "Si"</t>
+  </si>
+  <si>
+    <t>Tiempos de Reacción de cada texto en milisegundos</t>
+  </si>
+  <si>
+    <t>Es la Respuesta ingresada por el sujeto en cada pregunta</t>
+  </si>
+  <si>
+    <t>Se asigna 1p. por cada correcta. Max = 10</t>
+  </si>
+  <si>
+    <t>Tiempo de Reacción de Lectura del texto de Alto Conocimiento Previo en milisegundos</t>
+  </si>
+  <si>
+    <t>Tiempo de Reacción de Lectura del texto de Bajo Conocimiento Previo en milisegundos</t>
+  </si>
+  <si>
+    <t>Tiempo de Reacción al Choice de 10 preguntas sobre el texto de ACP</t>
+  </si>
+  <si>
+    <t>Tiempo de Reacción al Choice de 10 preguntas sobre el texto de BCP</t>
+  </si>
+  <si>
+    <t>Contiene el string con el Orden en el que se presentaron los textos. Se arma por azar en dos partes: 1° Si se presentan los de Alto Conocimiento Previo (A) y luego los de Bajo Conocimiento Previo (B) o viceversa; y 2° el orden al azar en que se presentan los 15 textos de cada grupo</t>
+  </si>
+  <si>
+    <t>El horario del servidor difiere del nuestro en 5 horas menos. Ej. Si se ingreso fue a las 15hs, figurará como a las 10hs. La fecha aparece como MM/DD/AAAA</t>
+  </si>
+  <si>
+    <t>Ordenamiento Dígito-Letra</t>
+  </si>
+  <si>
+    <t>Monitoreo</t>
+  </si>
+  <si>
+    <t>Comprensión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contiene el string con el Orden en el que se presentaron los textos y sus respectivos choice. </t>
+  </si>
+  <si>
+    <t>Datos Sociodemográficos</t>
+  </si>
+  <si>
+    <t>Dígitos Directos</t>
   </si>
 </sst>
 </file>
@@ -1057,41 +1198,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1104,17 +1216,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1354,7 +1455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1362,35 +1463,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1408,6 +1499,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1428,22 +1555,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1762,622 +1895,621 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109DBD85-E0F2-4DD0-B4CA-FF9562BF160D}">
   <dimension ref="A1:FL10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="6.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="6.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="6.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="6.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="6.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="6.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="6.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="6.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="6.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="7.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="7.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="7.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="7.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="7.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="7.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="90" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="96" width="19.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="97" max="105" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="106" max="111" width="19.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="112" max="120" width="6.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="121" max="126" width="7.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="127" max="135" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="136" max="141" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="33.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="143" max="151" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="153" max="161" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="16.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="21.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="16.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="169" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="82" max="90" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="91" max="96" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="97" max="105" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="106" max="111" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="112" max="120" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="121" max="126" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="127" max="135" width="6" bestFit="1" customWidth="1"/>
+    <col min="136" max="141" width="7" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="143" max="151" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="153" max="161" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:168" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:168" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" t="s">
         <v>27</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" t="s">
         <v>57</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" t="s">
         <v>58</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" t="s">
         <v>29</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" t="s">
         <v>59</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" t="s">
         <v>30</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" t="s">
         <v>60</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" t="s">
         <v>31</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" t="s">
         <v>61</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" t="s">
         <v>32</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" t="s">
         <v>62</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" t="s">
         <v>33</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AU1" t="s">
         <v>63</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" t="s">
         <v>34</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" t="s">
         <v>64</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AX1" t="s">
         <v>35</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AY1" t="s">
         <v>65</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="AZ1" t="s">
         <v>36</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BA1" t="s">
         <v>66</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BB1" t="s">
         <v>37</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BC1" t="s">
         <v>67</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" t="s">
         <v>38</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BE1" t="s">
         <v>68</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" t="s">
         <v>39</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BG1" t="s">
         <v>69</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BH1" t="s">
         <v>40</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BI1" t="s">
         <v>70</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BJ1" t="s">
         <v>41</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BK1" t="s">
         <v>71</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BL1" t="s">
         <v>42</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BM1" t="s">
         <v>72</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BN1" t="s">
         <v>43</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BO1" t="s">
         <v>73</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BP1" t="s">
         <v>44</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BQ1" t="s">
         <v>74</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BR1" t="s">
         <v>45</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BS1" t="s">
         <v>75</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BT1" t="s">
         <v>46</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BU1" t="s">
         <v>76</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BV1" t="s">
         <v>47</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BW1" t="s">
         <v>77</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BX1" t="s">
         <v>48</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="BY1" t="s">
         <v>78</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="BZ1" t="s">
         <v>49</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CA1" t="s">
         <v>79</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CB1" t="s">
         <v>50</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CC1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CD1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CE1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CF1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CG1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="4" t="s">
+      <c r="CH1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="4" t="s">
+      <c r="CI1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="4" t="s">
+      <c r="CJ1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="4" t="s">
+      <c r="CK1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="CL1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="CM1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CN1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="4" t="s">
+      <c r="CO1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="4" t="s">
+      <c r="CP1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="4" t="s">
+      <c r="CQ1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="4" t="s">
+      <c r="CR1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="4" t="s">
+      <c r="CS1" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="4" t="s">
+      <c r="CT1" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="4" t="s">
+      <c r="CU1" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="4" t="s">
+      <c r="CV1" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="4" t="s">
+      <c r="CW1" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="4" t="s">
+      <c r="CX1" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="4" t="s">
+      <c r="CY1" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="4" t="s">
+      <c r="CZ1" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="4" t="s">
+      <c r="DA1" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DB1" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DC1" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DD1" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DE1" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="4" t="s">
+      <c r="DF1" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DG1" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DH1" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="4" t="s">
+      <c r="DI1" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="4" t="s">
+      <c r="DJ1" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="4" t="s">
+      <c r="DK1" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="4" t="s">
+      <c r="DL1" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="4" t="s">
+      <c r="DM1" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" s="4" t="s">
+      <c r="DN1" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" s="4" t="s">
+      <c r="DO1" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" s="4" t="s">
+      <c r="DP1" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" s="4" t="s">
+      <c r="DQ1" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" s="4" t="s">
+      <c r="DR1" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" s="4" t="s">
+      <c r="DS1" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" s="4" t="s">
+      <c r="DT1" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" s="4" t="s">
+      <c r="DU1" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" s="4" t="s">
+      <c r="DV1" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" s="4" t="s">
+      <c r="DW1" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" s="4" t="s">
+      <c r="DX1" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="4" t="s">
+      <c r="DY1" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" s="4" t="s">
+      <c r="DZ1" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" s="4" t="s">
+      <c r="EA1" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" s="4" t="s">
+      <c r="EB1" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" s="4" t="s">
+      <c r="EC1" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" s="4" t="s">
+      <c r="ED1" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" s="4" t="s">
+      <c r="EE1" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" s="4" t="s">
+      <c r="EF1" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" s="4" t="s">
+      <c r="EG1" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" s="4" t="s">
+      <c r="EH1" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" s="4" t="s">
+      <c r="EI1" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" s="4" t="s">
+      <c r="EJ1" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" s="4" t="s">
+      <c r="EK1" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" s="5" t="s">
+      <c r="EL1" t="s">
         <v>145</v>
       </c>
-      <c r="EM1" s="4" t="s">
+      <c r="EM1" t="s">
         <v>148</v>
       </c>
-      <c r="EN1" s="4" t="s">
+      <c r="EN1" t="s">
         <v>149</v>
       </c>
-      <c r="EO1" s="4" t="s">
+      <c r="EO1" t="s">
         <v>150</v>
       </c>
-      <c r="EP1" s="4" t="s">
+      <c r="EP1" t="s">
         <v>151</v>
       </c>
-      <c r="EQ1" s="4" t="s">
+      <c r="EQ1" t="s">
         <v>152</v>
       </c>
-      <c r="ER1" s="4" t="s">
+      <c r="ER1" t="s">
         <v>153</v>
       </c>
-      <c r="ES1" s="4" t="s">
+      <c r="ES1" t="s">
         <v>154</v>
       </c>
-      <c r="ET1" s="4" t="s">
+      <c r="ET1" t="s">
         <v>155</v>
       </c>
-      <c r="EU1" s="4" t="s">
+      <c r="EU1" t="s">
         <v>156</v>
       </c>
-      <c r="EV1" s="4" t="s">
+      <c r="EV1" t="s">
         <v>157</v>
       </c>
-      <c r="EW1" s="4" t="s">
+      <c r="EW1" t="s">
         <v>158</v>
       </c>
-      <c r="EX1" s="4" t="s">
+      <c r="EX1" t="s">
         <v>159</v>
       </c>
-      <c r="EY1" s="4" t="s">
+      <c r="EY1" t="s">
         <v>160</v>
       </c>
-      <c r="EZ1" s="4" t="s">
+      <c r="EZ1" t="s">
         <v>161</v>
       </c>
-      <c r="FA1" s="4" t="s">
+      <c r="FA1" t="s">
         <v>162</v>
       </c>
-      <c r="FB1" s="4" t="s">
+      <c r="FB1" t="s">
         <v>163</v>
       </c>
-      <c r="FC1" s="4" t="s">
+      <c r="FC1" t="s">
         <v>164</v>
       </c>
-      <c r="FD1" s="4" t="s">
+      <c r="FD1" t="s">
         <v>165</v>
       </c>
-      <c r="FE1" s="4" t="s">
+      <c r="FE1" t="s">
         <v>166</v>
       </c>
-      <c r="FF1" s="4" t="s">
+      <c r="FF1" t="s">
         <v>167</v>
       </c>
-      <c r="FG1" s="4" t="s">
+      <c r="FG1" t="s">
         <v>146</v>
       </c>
-      <c r="FH1" s="4" t="s">
+      <c r="FH1" t="s">
         <v>147</v>
       </c>
-      <c r="FI1" s="4" t="s">
+      <c r="FI1" t="s">
         <v>141</v>
       </c>
-      <c r="FJ1" s="4" t="s">
+      <c r="FJ1" t="s">
         <v>142</v>
       </c>
-      <c r="FK1" s="4" t="s">
+      <c r="FK1" t="s">
         <v>143</v>
       </c>
-      <c r="FL1" s="6" t="s">
+      <c r="FL1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:168" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="1" t="str">
+    <row r="2" spans="1:168" x14ac:dyDescent="0.35">
+      <c r="J2" t="str">
         <f>IF(I2 = "Secundario Incompleto",Nivel_Educativo!$F$3,
 IF(I2 = "Secundario Completo", Nivel_Educativo!$F$4,
 IF(I2 = "Terciario Incompleto", Nivel_Educativo!$F$5,
@@ -2390,7 +2522,7 @@
       </c>
     </row>
     <row r="10" spans="1:168" x14ac:dyDescent="0.35">
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2403,1364 +2535,2690 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931D850E-CC55-4934-955C-A625C60A7692}">
-  <dimension ref="A1:B168"/>
+  <dimension ref="A1:N174"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16:N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40">
+        <v>1</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="40">
+        <v>2</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="40">
+        <v>3</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>353</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>352</v>
+      </c>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>353</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>352</v>
+      </c>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="K19" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>355</v>
+      </c>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>356</v>
+      </c>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+    </row>
+    <row r="28" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+    </row>
+    <row r="29" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+    </row>
+    <row r="30" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+    </row>
+    <row r="31" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+    </row>
+    <row r="32" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+    </row>
+    <row r="33" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="C33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+    </row>
+    <row r="34" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+    </row>
+    <row r="35" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="C35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+    </row>
+    <row r="36" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="C36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+    </row>
+    <row r="37" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="C37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+    </row>
+    <row r="38" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="C38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+    </row>
+    <row r="39" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="C39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+    </row>
+    <row r="40" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="C40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+    </row>
+    <row r="41" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="C41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+    </row>
+    <row r="42" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="C42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+    </row>
+    <row r="43" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>39</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="C43" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+    </row>
+    <row r="44" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="C44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+    </row>
+    <row r="45" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="C45" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+    </row>
+    <row r="46" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="C46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+    </row>
+    <row r="47" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>43</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="C47" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+    </row>
+    <row r="48" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>44</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="C48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+    </row>
+    <row r="49" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>45</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="C49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+    </row>
+    <row r="50" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>46</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="C50" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+    </row>
+    <row r="51" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>47</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="C51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+    </row>
+    <row r="52" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>48</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="C52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+    </row>
+    <row r="53" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>49</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C53" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>50</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>192</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="B55" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C55" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="B56" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="C56" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" t="s">
+        <v>358</v>
+      </c>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+    </row>
+    <row r="57" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>53</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="C57" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+    </row>
+    <row r="59" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>54</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="C59" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+    </row>
+    <row r="60" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>55</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="C60" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+    </row>
+    <row r="61" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>56</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="C61" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+    </row>
+    <row r="62" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>57</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="C62" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+    </row>
+    <row r="63" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>58</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="C63" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+    </row>
+    <row r="64" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>59</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="C64" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+    </row>
+    <row r="65" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>60</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="C65" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+    </row>
+    <row r="66" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>61</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="C66" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+    </row>
+    <row r="67" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>62</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="C67" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+    </row>
+    <row r="68" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>63</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="C68" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+    </row>
+    <row r="69" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>64</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="C69" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+    </row>
+    <row r="70" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>65</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="C70" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K70" s="36"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
+    </row>
+    <row r="71" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>66</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="C71" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+    </row>
+    <row r="72" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>67</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="C72" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
+    </row>
+    <row r="73" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>68</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="C73" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+    </row>
+    <row r="74" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>69</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B43" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="C74" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="36"/>
+    </row>
+    <row r="75" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>70</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="C75" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="36"/>
+    </row>
+    <row r="76" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>71</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="C76" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="36"/>
+    </row>
+    <row r="77" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>72</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="C77" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+    </row>
+    <row r="78" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>73</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="C78" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36"/>
+    </row>
+    <row r="79" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>74</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="C79" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
+    </row>
+    <row r="80" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>75</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="C80" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K80" s="36"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="36"/>
+    </row>
+    <row r="81" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>76</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B50" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="C81" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K81" s="36"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="36"/>
+    </row>
+    <row r="82" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>77</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="C82" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K82" s="36"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="36"/>
+    </row>
+    <row r="83" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>78</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B52" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="C83" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="36"/>
+    </row>
+    <row r="84" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>79</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="C84" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
+    </row>
+    <row r="85" spans="1:14" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>80</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B54" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="C85" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K85" s="36"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="36"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>81</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="C86" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>82</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B56" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="C87" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="36"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+    </row>
+    <row r="89" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>83</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="C89" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K89" s="36"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="36"/>
+    </row>
+    <row r="90" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>84</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B58" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="C90" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K90" s="36"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="36"/>
+    </row>
+    <row r="91" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>85</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B59" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="C91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K91" s="36"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="36"/>
+    </row>
+    <row r="92" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>86</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B60" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="C92" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K92" s="36"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="36"/>
+    </row>
+    <row r="93" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>87</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B61" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="C93" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K93" s="36"/>
+      <c r="L93" s="36"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="36"/>
+    </row>
+    <row r="94" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>88</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B62" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="C94" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K94" s="36"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="36"/>
+    </row>
+    <row r="95" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>89</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B63" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="C95" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K95" s="36"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="36"/>
+    </row>
+    <row r="96" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>90</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B64" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="C96" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K96" s="36"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="36"/>
+    </row>
+    <row r="97" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>91</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B65" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="C97" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K97" s="36"/>
+      <c r="L97" s="36"/>
+      <c r="M97" s="36"/>
+      <c r="N97" s="36"/>
+    </row>
+    <row r="98" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>92</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B66" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="C98" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K98" s="36"/>
+      <c r="L98" s="36"/>
+      <c r="M98" s="36"/>
+      <c r="N98" s="36"/>
+    </row>
+    <row r="99" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>93</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B67" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="C99" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K99" s="36"/>
+      <c r="L99" s="36"/>
+      <c r="M99" s="36"/>
+      <c r="N99" s="36"/>
+    </row>
+    <row r="100" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>94</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B68" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="C100" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K100" s="36"/>
+      <c r="L100" s="36"/>
+      <c r="M100" s="36"/>
+      <c r="N100" s="36"/>
+    </row>
+    <row r="101" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>95</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B69" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="C101" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K101" s="36"/>
+      <c r="L101" s="36"/>
+      <c r="M101" s="36"/>
+      <c r="N101" s="36"/>
+    </row>
+    <row r="102" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>96</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B70" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="C102" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K102" s="36"/>
+      <c r="L102" s="36"/>
+      <c r="M102" s="36"/>
+      <c r="N102" s="36"/>
+    </row>
+    <row r="103" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>97</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B71" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="C103" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K103" s="36"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="36"/>
+    </row>
+    <row r="104" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>98</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B72" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="C104" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K104" s="36"/>
+      <c r="L104" s="36"/>
+      <c r="M104" s="36"/>
+      <c r="N104" s="36"/>
+    </row>
+    <row r="105" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>99</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B73" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="C105" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K105" s="36"/>
+      <c r="L105" s="36"/>
+      <c r="M105" s="36"/>
+      <c r="N105" s="36"/>
+    </row>
+    <row r="106" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>100</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B74" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="C106" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K106" s="36"/>
+      <c r="L106" s="36"/>
+      <c r="M106" s="36"/>
+      <c r="N106" s="36"/>
+    </row>
+    <row r="107" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>101</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B75" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="C107" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K107" s="36"/>
+      <c r="L107" s="36"/>
+      <c r="M107" s="36"/>
+      <c r="N107" s="36"/>
+    </row>
+    <row r="108" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>102</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B76" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="C108" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K108" s="36"/>
+      <c r="L108" s="36"/>
+      <c r="M108" s="36"/>
+      <c r="N108" s="36"/>
+    </row>
+    <row r="109" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>103</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B77" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="C109" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K109" s="36"/>
+      <c r="L109" s="36"/>
+      <c r="M109" s="36"/>
+      <c r="N109" s="36"/>
+    </row>
+    <row r="110" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>104</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B78" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>221</v>
-      </c>
-      <c r="B79" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>222</v>
-      </c>
-      <c r="B80" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>223</v>
-      </c>
-      <c r="B81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>224</v>
-      </c>
-      <c r="B82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>225</v>
-      </c>
-      <c r="B83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>226</v>
-      </c>
-      <c r="B84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>227</v>
-      </c>
-      <c r="B85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>228</v>
-      </c>
-      <c r="B86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>229</v>
-      </c>
-      <c r="B87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>230</v>
-      </c>
-      <c r="B88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>231</v>
-      </c>
-      <c r="B89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>232</v>
-      </c>
-      <c r="B90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>233</v>
-      </c>
-      <c r="B91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>234</v>
-      </c>
-      <c r="B92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>235</v>
-      </c>
-      <c r="B93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>236</v>
-      </c>
-      <c r="B94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>237</v>
-      </c>
-      <c r="B95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>238</v>
-      </c>
-      <c r="B96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>239</v>
-      </c>
-      <c r="B97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>240</v>
-      </c>
-      <c r="B98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>241</v>
-      </c>
-      <c r="B99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>242</v>
-      </c>
-      <c r="B100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>243</v>
-      </c>
-      <c r="B101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>244</v>
-      </c>
-      <c r="B102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>245</v>
-      </c>
-      <c r="B103" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>246</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="C110" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+      <c r="K110" s="36"/>
+      <c r="L110" s="36"/>
+      <c r="M110" s="36"/>
+      <c r="N110" s="36"/>
+    </row>
+    <row r="111" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>105</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C111" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="K111" s="36"/>
+      <c r="L111" s="36"/>
+      <c r="M111" s="36"/>
+      <c r="N111" s="36"/>
+    </row>
+    <row r="112" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>106</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C112" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+      <c r="K112" s="36"/>
+      <c r="L112" s="36"/>
+      <c r="M112" s="36"/>
+      <c r="N112" s="36"/>
+    </row>
+    <row r="113" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>107</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C113" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+      <c r="K113" s="36"/>
+      <c r="L113" s="36"/>
+      <c r="M113" s="36"/>
+      <c r="N113" s="36"/>
+    </row>
+    <row r="114" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>108</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C114" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+      <c r="K114" s="36"/>
+      <c r="L114" s="36"/>
+      <c r="M114" s="36"/>
+      <c r="N114" s="36"/>
+    </row>
+    <row r="115" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>109</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C115" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+      <c r="K115" s="36"/>
+      <c r="L115" s="36"/>
+      <c r="M115" s="36"/>
+      <c r="N115" s="36"/>
+    </row>
+    <row r="116" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>110</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C116" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+      <c r="K116" s="36"/>
+      <c r="L116" s="36"/>
+      <c r="M116" s="36"/>
+      <c r="N116" s="36"/>
+    </row>
+    <row r="117" spans="1:14" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>111</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C117" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+      <c r="K117" s="36"/>
+      <c r="L117" s="36"/>
+      <c r="M117" s="36"/>
+      <c r="N117" s="36"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>112</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C118" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+      <c r="D118" t="s">
+        <v>360</v>
+      </c>
+      <c r="K118" s="36"/>
+      <c r="L118" s="36"/>
+      <c r="M118" s="36"/>
+      <c r="N118" s="36"/>
+    </row>
+    <row r="119" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>113</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C119" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+      <c r="K119" s="36"/>
+      <c r="L119" s="36"/>
+      <c r="M119" s="36"/>
+      <c r="N119" s="36"/>
+    </row>
+    <row r="120" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>114</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C120" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+      <c r="K120" s="36"/>
+      <c r="L120" s="36"/>
+      <c r="M120" s="36"/>
+      <c r="N120" s="36"/>
+    </row>
+    <row r="121" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>115</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C121" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+      <c r="K121" s="36"/>
+      <c r="L121" s="36"/>
+      <c r="M121" s="36"/>
+      <c r="N121" s="36"/>
+    </row>
+    <row r="122" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>116</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C122" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+      <c r="K122" s="36"/>
+      <c r="L122" s="36"/>
+      <c r="M122" s="36"/>
+      <c r="N122" s="36"/>
+    </row>
+    <row r="123" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>117</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C123" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+      <c r="K123" s="36"/>
+      <c r="L123" s="36"/>
+      <c r="M123" s="36"/>
+      <c r="N123" s="36"/>
+    </row>
+    <row r="124" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>118</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C124" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+      <c r="K124" s="36"/>
+      <c r="L124" s="36"/>
+      <c r="M124" s="36"/>
+      <c r="N124" s="36"/>
+    </row>
+    <row r="125" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>119</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C125" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+      <c r="K125" s="36"/>
+      <c r="L125" s="36"/>
+      <c r="M125" s="36"/>
+      <c r="N125" s="36"/>
+    </row>
+    <row r="126" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>120</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C126" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+      <c r="K126" s="36"/>
+      <c r="L126" s="36"/>
+      <c r="M126" s="36"/>
+      <c r="N126" s="36"/>
+    </row>
+    <row r="127" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>121</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C127" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+      <c r="K127" s="36"/>
+      <c r="L127" s="36"/>
+      <c r="M127" s="36"/>
+      <c r="N127" s="36"/>
+    </row>
+    <row r="128" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>122</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C128" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
+      <c r="K128" s="36"/>
+      <c r="L128" s="36"/>
+      <c r="M128" s="36"/>
+      <c r="N128" s="36"/>
+    </row>
+    <row r="129" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>123</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C129" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
+      <c r="K129" s="36"/>
+      <c r="L129" s="36"/>
+      <c r="M129" s="36"/>
+      <c r="N129" s="36"/>
+    </row>
+    <row r="130" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>124</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C130" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
+      <c r="K130" s="36"/>
+      <c r="L130" s="36"/>
+      <c r="M130" s="36"/>
+      <c r="N130" s="36"/>
+    </row>
+    <row r="131" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>125</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C131" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
+      <c r="K131" s="36"/>
+      <c r="L131" s="36"/>
+      <c r="M131" s="36"/>
+      <c r="N131" s="36"/>
+    </row>
+    <row r="132" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>126</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C132" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
+      <c r="K132" s="36"/>
+      <c r="L132" s="36"/>
+      <c r="M132" s="36"/>
+      <c r="N132" s="36"/>
+    </row>
+    <row r="133" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>127</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C133" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
+      <c r="K133" s="36"/>
+      <c r="L133" s="36"/>
+      <c r="M133" s="36"/>
+      <c r="N133" s="36"/>
+    </row>
+    <row r="134" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>128</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C134" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+      <c r="K134" s="36"/>
+      <c r="L134" s="36"/>
+      <c r="M134" s="36"/>
+      <c r="N134" s="36"/>
+    </row>
+    <row r="135" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>129</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C135" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
+      <c r="K135" s="36"/>
+      <c r="L135" s="36"/>
+      <c r="M135" s="36"/>
+      <c r="N135" s="36"/>
+    </row>
+    <row r="136" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>130</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C136" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
+      <c r="K136" s="36"/>
+      <c r="L136" s="36"/>
+      <c r="M136" s="36"/>
+      <c r="N136" s="36"/>
+    </row>
+    <row r="137" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>131</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C137" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+      <c r="K137" s="36"/>
+      <c r="L137" s="36"/>
+      <c r="M137" s="36"/>
+      <c r="N137" s="36"/>
+    </row>
+    <row r="138" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>132</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C138" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
+      <c r="K138" s="36"/>
+      <c r="L138" s="36"/>
+      <c r="M138" s="36"/>
+      <c r="N138" s="36"/>
+    </row>
+    <row r="139" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>133</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C139" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+      <c r="K139" s="36"/>
+      <c r="L139" s="36"/>
+      <c r="M139" s="36"/>
+      <c r="N139" s="36"/>
+    </row>
+    <row r="140" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>134</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C140" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
+      <c r="K140" s="36"/>
+      <c r="L140" s="36"/>
+      <c r="M140" s="36"/>
+      <c r="N140" s="36"/>
+    </row>
+    <row r="141" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <v>135</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C141" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
+      <c r="K141" s="36"/>
+      <c r="L141" s="36"/>
+      <c r="M141" s="36"/>
+      <c r="N141" s="36"/>
+    </row>
+    <row r="142" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>136</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C142" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
+      <c r="K142" s="36"/>
+      <c r="L142" s="36"/>
+      <c r="M142" s="36"/>
+      <c r="N142" s="36"/>
+    </row>
+    <row r="143" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>137</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C143" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
+      <c r="K143" s="36"/>
+      <c r="L143" s="36"/>
+      <c r="M143" s="36"/>
+      <c r="N143" s="36"/>
+    </row>
+    <row r="144" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>138</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C144" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
+      <c r="K144" s="36"/>
+      <c r="L144" s="36"/>
+      <c r="M144" s="36"/>
+      <c r="N144" s="36"/>
+    </row>
+    <row r="145" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>139</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C145" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+      <c r="K145" s="36"/>
+      <c r="L145" s="36"/>
+      <c r="M145" s="36"/>
+      <c r="N145" s="36"/>
+    </row>
+    <row r="146" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>140</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C146" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
+      <c r="K146" s="36"/>
+      <c r="L146" s="36"/>
+      <c r="M146" s="36"/>
+      <c r="N146" s="36"/>
+    </row>
+    <row r="147" spans="1:14" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A147" s="2">
+        <v>141</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C147" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="42"/>
+      <c r="L147" s="42"/>
+      <c r="M147" s="42"/>
+      <c r="N147" s="42"/>
+    </row>
+    <row r="148" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>142</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C148" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
+      <c r="D148" t="s">
+        <v>372</v>
+      </c>
+      <c r="K148" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="L148" s="35"/>
+      <c r="M148" s="35"/>
+      <c r="N148" s="35"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>143</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C149" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
+      <c r="D149" t="s">
+        <v>361</v>
+      </c>
+      <c r="K149" s="36"/>
+      <c r="L149" s="36"/>
+      <c r="M149" s="36"/>
+      <c r="N149" s="36"/>
+    </row>
+    <row r="150" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>144</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C150" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
+    <row r="151" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>145</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C151" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
+    <row r="152" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>146</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C152" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
+    <row r="153" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>147</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C153" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
+    <row r="154" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>148</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C154" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+    <row r="155" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>149</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C155" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
+    <row r="156" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>150</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C156" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
+    <row r="157" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>151</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C157" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
+    <row r="158" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>152</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C158" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
+    <row r="159" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>153</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C159" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
+    <row r="160" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>154</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C160" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
+    <row r="161" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>155</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C161" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
+    <row r="162" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>156</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C162" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
+    <row r="163" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>157</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C163" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
+    <row r="164" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>158</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C164" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
+    <row r="165" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>159</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C165" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
+    <row r="166" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>160</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C166" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+    <row r="167" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>161</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C167" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
+    <row r="168" spans="1:4" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>162</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C168" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>163</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C169" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
+      <c r="D169" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>164</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C170" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
+      <c r="D170" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>165</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C171" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
+      <c r="D171" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
+        <v>166</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C172" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
+      <c r="D172" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <v>167</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C173" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
+      <c r="D173" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <v>168</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C174" s="3" t="s">
         <v>144</v>
       </c>
+      <c r="D174" t="s">
+        <v>366</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="K148:N148"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="D57:J58"/>
+    <mergeCell ref="D87:J88"/>
+    <mergeCell ref="K1:N4"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D20:J23"/>
+    <mergeCell ref="D26:J27"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K19:N19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3775,128 +5233,128 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -3910,13 +5368,13 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:H5"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Solucion/WebApplication1/Exportar/Documento_Modelo/Base_de_Datos.xlsx
+++ b/Solucion/WebApplication1/Exportar/Documento_Modelo/Base_de_Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guido\Desktop\pruebas_compr\Solucion\WebApplication1\Exportar\Documento_Modelo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464B7068-FF24-405D-903B-DF62EA1B3BCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE013DC-CCD0-4AF3-B25B-4260B4ACAF2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5E9FF1E2-2A43-44C0-A97E-8B5FEEED7E5B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5E9FF1E2-2A43-44C0-A97E-8B5FEEED7E5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="374">
   <si>
     <t>Duración</t>
   </si>
@@ -1141,9 +1143,6 @@
   </si>
   <si>
     <t>Contiene el string con el Orden en el que se presentaron los textos. Se arma por azar en dos partes: 1° Si se presentan los de Alto Conocimiento Previo (A) y luego los de Bajo Conocimiento Previo (B) o viceversa; y 2° el orden al azar en que se presentan los 15 textos de cada grupo</t>
-  </si>
-  <si>
-    <t>El horario del servidor difiere del nuestro en 5 horas menos. Ej. Si se ingreso fue a las 15hs, figurará como a las 10hs. La fecha aparece como MM/DD/AAAA</t>
   </si>
   <si>
     <t>Ordenamiento Dígito-Letra</t>
@@ -1494,12 +1493,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1579,6 +1572,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1896,7 +1895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109DBD85-E0F2-4DD0-B4CA-FF9562BF160D}">
   <dimension ref="A1:FL1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -15511,8 +15510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931D850E-CC55-4934-955C-A625C60A7692}">
   <dimension ref="A1:N174"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16:N16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
@@ -15532,21 +15531,19 @@
       <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
@@ -15558,19 +15555,19 @@
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
@@ -15582,19 +15579,19 @@
       <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
@@ -15606,19 +15603,19 @@
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -15631,7 +15628,7 @@
         <v>5</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
@@ -15742,7 +15739,7 @@
         <v>353</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
@@ -15804,7 +15801,7 @@
         <v>353</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
@@ -15866,7 +15863,7 @@
         <v>354</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
@@ -15882,54 +15879,54 @@
       <c r="C20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -17853,10 +17850,10 @@
         <v>145</v>
       </c>
       <c r="D148" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K148" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L148" s="12"/>
       <c r="M148" s="12"/>
@@ -18174,12 +18171,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="K148:N148"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="D57:J58"/>
     <mergeCell ref="D87:J88"/>
-    <mergeCell ref="K1:N4"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="D3:J3"/>
@@ -18207,128 +18203,128 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="36"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="17">
